--- a/数据库架构.xlsx
+++ b/数据库架构.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Codefield\CODE_JAVA\Java_Multiple\Music\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6F4925D-85BF-49C4-9C3B-5829F116B649}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C59CCB8E-764A-473E-B979-E79B30A3C171}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="240" windowWidth="14350" windowHeight="9490" xr2:uid="{E427A3D9-BA4D-4F26-B8FC-F74450FC7AA2}"/>
+    <workbookView xWindow="5030" yWindow="1000" windowWidth="14350" windowHeight="9490" xr2:uid="{E427A3D9-BA4D-4F26-B8FC-F74450FC7AA2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -40,10 +40,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>music db</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>music_name</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -64,10 +60,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>category db</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>category_id</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -104,14 +96,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>user db</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>favorite db</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>favorite_id</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -192,23 +176,39 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>order db</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>orderitem db</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>administrator db</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>orderitem_id</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>category_description</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>musicdb</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>user</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>favorite</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>orders</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>orderitems</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>administrator</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>music_category</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -627,7 +627,7 @@
   <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -636,28 +636,28 @@
     <col min="2" max="2" width="18.08203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.08203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.75" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>1</v>
+        <v>37</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
@@ -665,70 +665,70 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>10</v>
-      </c>
       <c r="D2" s="1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
         <v>9</v>
       </c>
-      <c r="C3" t="s">
-        <v>11</v>
-      </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E3" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="F3" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B4" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="C4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D4" t="s">
         <v>0</v>
       </c>
       <c r="E4" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="F4" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E5" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="F5" s="5" t="s">
         <v>0</v>
@@ -736,100 +736,100 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E6" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="F6" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>6</v>
+        <v>43</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
